--- a/学习动机课题数据.xlsx
+++ b/学习动机课题数据.xlsx
@@ -375,7 +375,6 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -714,7 +713,7 @@
   <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -836,7 +835,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1">
-        <v>81.260000000000005</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>85</v>
